--- a/web_app_4dk/new_call_statistic.xlsx
+++ b/web_app_4dk/new_call_statistic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmec\Documents\GitHub\Merge-excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmec\Documents\GitHub\web_app_4dk\web_app_4dk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E4558-0CBC-4128-A1CF-488214875608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34414FED-CF31-4EFB-B073-8134962E9DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2872,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J816"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,6 +3942,9 @@
       <c r="A34" t="s">
         <v>325</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34" s="1">
         <v>2.5115740740740741E-2</v>
       </c>
